--- a/data/xls/2010-03-01/20100623-EER-rep-Bayer-Jan-Mar-2010.xlsx
+++ b/data/xls/2010-03-01/20100623-EER-rep-Bayer-Jan-Mar-2010.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23117"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
+    <workbookView xWindow="120" yWindow="20" windowWidth="18960" windowHeight="11320"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="334">
   <si>
     <r>
       <rPr>
@@ -22,7 +27,7 @@
         <sz val="10"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">Company: Bayer Australia Ltd</t>
+      <t>Company: Bayer Australia Ltd</t>
     </r>
   </si>
   <si>
@@ -32,7 +37,7 @@
         <sz val="10"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">Reporting Period: 1 January 2010 to 31st March 2010</t>
+      <t>Reporting Period: 1 January 2010 to 31st March 2010</t>
     </r>
   </si>
   <si>
@@ -43,7 +48,7 @@
         <color rgb="FFFFFFFF"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">DESCRIPTION OF FUNCTION</t>
+      <t>DESCRIPTION OF FUNCTION</t>
     </r>
   </si>
   <si>
@@ -54,7 +59,7 @@
         <color rgb="FFFFFFFF"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">VENUE</t>
+      <t>VENUE</t>
     </r>
   </si>
   <si>
@@ -65,7 +70,7 @@
         <color rgb="FFFFFFFF"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">PROF STATUS OF ATTENDEES</t>
+      <t>PROF STATUS OF ATTENDEES</t>
     </r>
   </si>
   <si>
@@ -76,7 +81,7 @@
         <color rgb="FFFFFFFF"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">HOSPITALIT Y PROVIDED</t>
+      <t>HOSPITALIT Y PROVIDED</t>
     </r>
   </si>
   <si>
@@ -97,7 +102,7 @@
         <color rgb="FFFFFFFF"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">HOSPITALIT Y COST</t>
+      <t>HOSPITALIT Y COST</t>
     </r>
   </si>
   <si>
@@ -118,7 +123,7 @@
         <color rgb="FFFFFFFF"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">ATTENDE D</t>
+      <t>ATTENDE D</t>
     </r>
   </si>
   <si>
@@ -139,7 +144,7 @@
         <color rgb="FFFFFFFF"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">OF FUNCTION</t>
+      <t>OF FUNCTION</t>
     </r>
   </si>
   <si>
@@ -149,7 +154,7 @@
         <sz val="10"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">January</t>
+      <t>January</t>
     </r>
   </si>
   <si>
@@ -166,7 +171,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+      <t>organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
     </r>
   </si>
   <si>
@@ -183,34 +188,34 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">Hospital Road, NAMBOUR, QLD, 4560</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Medical Oncologist, Nurse - Oncology, Nurse - Unit Manager</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">N/A</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">15</t>
+      <t>Hospital Road, NAMBOUR, QLD, 4560</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Medical Oncologist, Nurse - Oncology, Nurse - Unit Manager</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>N/A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>15</t>
     </r>
   </si>
   <si>
@@ -227,16 +232,16 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$230</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of Urology Dept Pathology Meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1.5 hours</t>
+      <t>$230</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Sponsorship of Urology Dept Pathology Meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1.5 hours</t>
     </r>
   </si>
   <si>
@@ -253,25 +258,25 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">2nd Floor, ADELAIDE, SA, 5000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Urologist, Radiologists, Registrars</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">12</t>
+      <t>2nd Floor, ADELAIDE, SA, 5000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Urologist, Radiologists, Registrars</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>12</t>
     </r>
   </si>
   <si>
@@ -288,7 +293,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$95.7</t>
+      <t>$95.7</t>
     </r>
   </si>
   <si>
@@ -313,7 +318,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+      <t>Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
     </r>
   </si>
   <si>
@@ -346,25 +351,25 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">4006</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Medical Oncologist, Registrar - Medical Oncologist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">25</t>
+      <t>4006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Medical Oncologist, Registrar - Medical Oncologist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>25</t>
     </r>
   </si>
   <si>
@@ -381,7 +386,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$218.7</t>
+      <t>$218.7</t>
     </r>
   </si>
   <si>
@@ -398,34 +403,34 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 2 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Radiation Oncology, Royal Adelaide Hospital, East Wing - Level 3, ADELAIDE, SA, 5000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Radiation Oncologist/Radiotherapy, Registrar - Radiation Oncologist/Radiotherapy</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">30</t>
+      <t>for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 2 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Dept of Radiation Oncology, Royal Adelaide Hospital, East Wing - Level 3, ADELAIDE, SA, 5000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Radiation Oncologist/Radiotherapy, Registrar - Radiation Oncologist/Radiotherapy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>30</t>
     </r>
   </si>
   <si>
@@ -442,7 +447,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$270</t>
+      <t>$270</t>
     </r>
   </si>
   <si>
@@ -459,25 +464,25 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Urology, Gold Coast Hospital Southport, 108 Nerang Street, SOUTHPORT, QLD, 4215</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Urologist</t>
+      <t>for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Dept of Urology, Gold Coast Hospital Southport, 108 Nerang Street, SOUTHPORT, QLD, 4215</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Urologist</t>
     </r>
   </si>
   <si>
@@ -494,16 +499,16 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$65</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of Urology Dept case review eeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel.  Duration: 1 hour</t>
+      <t>$65</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Sponsorship of Urology Dept case review eeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel.  Duration: 1 hour</t>
     </r>
   </si>
   <si>
@@ -520,16 +525,16 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">Hospital, 53 Raymond Terrace, SOUTH BRISBANE, QLD, 4101</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">23</t>
+      <t>Hospital, 53 Raymond Terrace, SOUTH BRISBANE, QLD, 4101</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>23</t>
     </r>
   </si>
   <si>
@@ -546,16 +551,16 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$226.7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of Bone Marrow Transplant Unit case review meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+      <t>$226.7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Sponsorship of Bone Marrow Transplant Unit case review meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
     </r>
   </si>
   <si>
@@ -588,16 +593,16 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">4006</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Haematologist, Nurse - Unit Manager, Registrar - Haematologist</t>
+      <t>4006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Haematologist, Nurse - Unit Manager, Registrar - Haematologist</t>
     </r>
   </si>
   <si>
@@ -614,7 +619,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$155</t>
+      <t>$155</t>
     </r>
   </si>
   <si>
@@ -639,16 +644,16 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">8</t>
+      <t>Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>8</t>
     </r>
   </si>
   <si>
@@ -665,7 +670,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$68.9</t>
+      <t>$68.9</t>
     </r>
   </si>
   <si>
@@ -690,34 +695,34 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Haematology, Princess Alexandra Hospital, 199 Ipswich Road, WOOLLOONGABBA, QLD, 4102</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Haematologist, Registrar - Haematologist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Registrar - Urologist, Urologist</t>
+      <t>Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Dept of Haematology, Princess Alexandra Hospital, 199 Ipswich Road, WOOLLOONGABBA, QLD, 4102</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Haematologist, Registrar - Haematologist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Registrar - Urologist, Urologist</t>
     </r>
   </si>
   <si>
@@ -734,43 +739,43 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$76</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of MS Society Nurse education meeting. The event was organised by the MS Society and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Jolly Frog Restaurant, 8 Rod Court, Wannanup, WA, 6210</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">MS Society Nurse, Nurse - Clinical Nurse, Nurse - Community Nurse, Nurse - Educator, Nurse - Registered Nurse, Nurse - Unit Manager</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">10</t>
+      <t>$76</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Sponsorship of MS Society Nurse education meeting. The event was organised by the MS Society and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Jolly Frog Restaurant, 8 Rod Court, Wannanup, WA, 6210</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>MS Society Nurse, Nurse - Clinical Nurse, Nurse - Community Nurse, Nurse - Educator, Nurse - Registered Nurse, Nurse - Unit Manager</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>10</t>
     </r>
   </si>
   <si>
@@ -787,7 +792,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$311.15</t>
+      <t>$311.15</t>
     </r>
   </si>
   <si>
@@ -797,7 +802,7 @@
         <sz val="10"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">February</t>
+      <t>February</t>
     </r>
   </si>
   <si>
@@ -814,34 +819,34 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">accomodation or travel.Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Neurology, St Vincents Hospital Sydney, Victoria Street, DARLINGHURST, NSW, 2010</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Neurologist, Registrar - Neurologist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">14</t>
+      <t>accomodation or travel.Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Dept of Neurology, St Vincents Hospital Sydney, Victoria Street, DARLINGHURST, NSW, 2010</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Neurologist, Registrar - Neurologist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>14</t>
     </r>
   </si>
   <si>
@@ -858,34 +863,34 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$195</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of Oncology Dept journal club meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Oncology Level 6, Redcliffe Hospital, Anzac Avenue, REDCLIFFE, QLD, 4020</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Medical Oncologist, Nurse - Oncology, Palliative Care</t>
+      <t>$195</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Sponsorship of Oncology Dept journal club meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Dept of Oncology Level 6, Redcliffe Hospital, Anzac Avenue, REDCLIFFE, QLD, 4020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Medical Oncologist, Nurse - Oncology, Palliative Care</t>
     </r>
   </si>
   <si>
@@ -902,25 +907,25 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$80</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Urology, John Flynn Private Hospital, 42 Inland Drive, TUGUN, QLD, 4224</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
+      <t>$80</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Dept of Urology, John Flynn Private Hospital, 42 Inland Drive, TUGUN, QLD, 4224</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>4</t>
     </r>
   </si>
   <si>
@@ -937,16 +942,16 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of Hepatobiliary multidisciplinary case review meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+      <t>$20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Sponsorship of Hepatobiliary multidisciplinary case review meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
     </r>
   </si>
   <si>
@@ -979,25 +984,25 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">4006</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Gastroenterologist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">20</t>
+      <t>4006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Gastroenterologist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>20</t>
     </r>
   </si>
   <si>
@@ -1014,7 +1019,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$140</t>
+      <t>$140</t>
     </r>
   </si>
   <si>
@@ -1031,7 +1036,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$88.5</t>
+      <t>$88.5</t>
     </r>
   </si>
   <si>
@@ -1048,34 +1053,34 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Oncology, Ballarat Base Hospital, 1 Drummond Street North, BALLARAT, VIC, 3350</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Medical Oncologist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">42</t>
+      <t>for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Dept of Oncology, Ballarat Base Hospital, 1 Drummond Street North, BALLARAT, VIC, 3350</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Medical Oncologist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>42</t>
     </r>
   </si>
   <si>
@@ -1092,7 +1097,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$680</t>
+      <t>$680</t>
     </r>
   </si>
   <si>
@@ -1109,34 +1114,34 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel.Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Respiratory Medicine, Greenslopes Private Hospital, Newdegate Street, GREENSLOPES, QLD, 4120</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Respiratory/Thoracic Physician</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Urology, Greenslopes Private Hospital, Ward 13, GREENSLOPES, QLD, 4120</t>
+      <t>organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel.Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Dept of Respiratory Medicine, Greenslopes Private Hospital, Newdegate Street, GREENSLOPES, QLD, 4120</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Respiratory/Thoracic Physician</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Dept of Urology, Greenslopes Private Hospital, Ward 13, GREENSLOPES, QLD, 4120</t>
     </r>
   </si>
   <si>
@@ -1153,7 +1158,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$120.2</t>
+      <t>$120.2</t>
     </r>
   </si>
   <si>
@@ -1170,25 +1175,25 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Respiratory Medicine, Princess Alexandra Hospital, 199 Ipswich Road, WOOLLOONGABBA, QLD, 4102</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Registrar - Respiratory/Thoracic Physician, Respiratory/Thoracic Physician</t>
+      <t>organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Dept of Respiratory Medicine, Princess Alexandra Hospital, 199 Ipswich Road, WOOLLOONGABBA, QLD, 4102</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Registrar - Respiratory/Thoracic Physician, Respiratory/Thoracic Physician</t>
     </r>
   </si>
   <si>
@@ -1205,7 +1210,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$360</t>
+      <t>$360</t>
     </r>
   </si>
   <si>
@@ -1222,16 +1227,16 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Neurology, 256a Great Western Highway, KINGSWOOD, NSW, 2747</t>
+      <t>organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Dept of Neurology, 256a Great Western Highway, KINGSWOOD, NSW, 2747</t>
     </r>
   </si>
   <si>
@@ -1248,7 +1253,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">Nurse, Registrar - Neurologist</t>
+      <t>Nurse, Registrar - Neurologist</t>
     </r>
   </si>
   <si>
@@ -1265,16 +1270,16 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$227</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of Oncology Dept MDT breast cancer case review meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+      <t>$227</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Sponsorship of Oncology Dept MDT breast cancer case review meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
     </r>
   </si>
   <si>
@@ -1291,25 +1296,25 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$203.9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of prostate cancer MDT meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1.5 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Urology, Queen Elizabeth Hospital, 28 Woodville Road, WOODVILLE SOUTH, SA, 5011</t>
+      <t>$203.9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Sponsorship of prostate cancer MDT meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1.5 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Dept of Urology, Queen Elizabeth Hospital, 28 Woodville Road, WOODVILLE SOUTH, SA, 5011</t>
     </r>
   </si>
   <si>
@@ -1326,7 +1331,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">Oncologists</t>
+      <t>Oncologists</t>
     </r>
   </si>
   <si>
@@ -1343,16 +1348,16 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$82.3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of AIRMED grand round.sponsorship.the event was organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Topic: Medical Record Scanning (new system), Duration: 1.5 hours</t>
+      <t>$82.3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Sponsorship of AIRMED grand round.sponsorship.the event was organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Topic: Medical Record Scanning (new system), Duration: 1.5 hours</t>
     </r>
   </si>
   <si>
@@ -1377,16 +1382,16 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">3004</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">40</t>
+      <t>3004</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>40</t>
     </r>
   </si>
   <si>
@@ -1403,16 +1408,16 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$504</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">9</t>
+      <t>$504</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>9</t>
     </r>
   </si>
   <si>
@@ -1429,16 +1434,16 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1.5 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Urology, Royal Hobart Hospital, 48 Liverpool Street, HOBART, TAS, 7000</t>
+      <t>the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1.5 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Dept of Urology, Royal Hobart Hospital, 48 Liverpool Street, HOBART, TAS, 7000</t>
     </r>
   </si>
   <si>
@@ -1455,7 +1460,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$102</t>
+      <t>$102</t>
     </r>
   </si>
   <si>
@@ -1472,34 +1477,34 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">CPD: 1, Duration: 2 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Gosford Hospital, 76 Holden St, Gosford, NSW, 2250</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Radiographer, Radiologist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">18</t>
+      <t>CPD: 1, Duration: 2 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Gosford Hospital, 76 Holden St, Gosford, NSW, 2250</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Radiographer, Radiologist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>18</t>
     </r>
   </si>
   <si>
@@ -1516,34 +1521,34 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$183.16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Orthopaedic case studies,sponsorship.the event was organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 2 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Orthopaedics, Fremantle Hospital, 2 Alma Street, FREMANTLE, WA, 6160</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Orthopaedic Surgeon</t>
+      <t>$183.16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Orthopaedic case studies,sponsorship.the event was organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 2 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Dept of Orthopaedics, Fremantle Hospital, 2 Alma Street, FREMANTLE, WA, 6160</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Orthopaedic Surgeon</t>
     </r>
   </si>
   <si>
@@ -1560,16 +1565,16 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$300</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Registrar - General Surgeon, Urologist</t>
+      <t>$300</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Registrar - General Surgeon, Urologist</t>
     </r>
   </si>
   <si>
@@ -1586,25 +1591,25 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$50</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Division of Cancer Services, Mater Adults Hospital, Level 3, SOUTH BRISBANE, QLD, 4101</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Registrar - Medical Oncologist</t>
+      <t>$50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Division of Cancer Services, Mater Adults Hospital, Level 3, SOUTH BRISBANE, QLD, 4101</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Registrar - Medical Oncologist</t>
     </r>
   </si>
   <si>
@@ -1621,34 +1626,34 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Sponsored Breakfast meeting - orthopaedic departmental clinical meeting. sponsorship.the event was organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Orthopaedics, Flinders Medical Centre, Flinders Drive, BEDFORD PARK, SA, 5042</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Nurse - Educator, Nurse - Registered Nurse, Orthopaedic Surgeon, Registrar - Orthopaedic Surgeon</t>
+      <t>for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Sponsored Breakfast meeting - orthopaedic departmental clinical meeting. sponsorship.the event was organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Dept of Orthopaedics, Flinders Medical Centre, Flinders Drive, BEDFORD PARK, SA, 5042</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Nurse - Educator, Nurse - Registered Nurse, Orthopaedic Surgeon, Registrar - Orthopaedic Surgeon</t>
     </r>
   </si>
   <si>
@@ -1665,7 +1670,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$170.6</t>
+      <t>$170.6</t>
     </r>
   </si>
   <si>
@@ -1682,25 +1687,25 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">Australia Ltd was not responsible for inviting the attendees or organising the educational, content the hospitality, accommodation or travel., , Duration: 2 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Balmain ID Meeting, Balmain Hospital, Balmain, NSW, 2041</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Infectious Diseases, Microbiologist, Registrar - Infectious Diseases, Registrar - Microbiologist</t>
+      <t>Australia Ltd was not responsible for inviting the attendees or organising the educational, content the hospitality, accommodation or travel., , Duration: 2 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Balmain ID Meeting, Balmain Hospital, Balmain, NSW, 2041</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Infectious Diseases, Microbiologist, Registrar - Infectious Diseases, Registrar - Microbiologist</t>
     </r>
   </si>
   <si>
@@ -1717,16 +1722,16 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$194.8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of Haematology Dept meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+      <t>$194.8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Sponsorship of Haematology Dept meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
     </r>
   </si>
   <si>
@@ -1743,25 +1748,25 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$200</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Neurology, 1A Hospital Road, CONCORD WEST, NSW, 2138</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Neurologist, Nurse - Clinical Nurse, Nurse - Registered Nurse, Registrar - Neurologist</t>
+      <t>$200</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Dept of Neurology, 1A Hospital Road, CONCORD WEST, NSW, 2138</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Neurologist, Nurse - Clinical Nurse, Nurse - Registered Nurse, Registrar - Neurologist</t>
     </r>
   </si>
   <si>
@@ -1778,7 +1783,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$419.95</t>
+      <t>$419.95</t>
     </r>
   </si>
   <si>
@@ -1795,16 +1800,16 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">Educational Journal Club,sponsorship.the event was organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Respiratory Medicine, Prince of Wales Hospital, 61 High Street, RANDWICK, NSW, 2031</t>
+      <t>Educational Journal Club,sponsorship.the event was organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Dept of Respiratory Medicine, Prince of Wales Hospital, 61 High Street, RANDWICK, NSW, 2031</t>
     </r>
   </si>
   <si>
@@ -1821,7 +1826,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$336.1</t>
+      <t>$336.1</t>
     </r>
   </si>
   <si>
@@ -1838,16 +1843,16 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Topic: Vocal cord disfunction, Duration: 1.5 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Respiratory Medicine, Monash Medical Centre, 246 Clayton Road, CLAYTON, VIC, 3168</t>
+      <t>department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Topic: Vocal cord disfunction, Duration: 1.5 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Dept of Respiratory Medicine, Monash Medical Centre, 246 Clayton Road, CLAYTON, VIC, 3168</t>
     </r>
   </si>
   <si>
@@ -1864,7 +1869,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$100</t>
+      <t>$100</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1886,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">Road, CAMPERDOWN, NSW, 2050</t>
+      <t>Road, CAMPERDOWN, NSW, 2050</t>
     </r>
   </si>
   <si>
@@ -1898,16 +1903,16 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$454.92</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">A sponsored educational meeting covering recent developments in travel medicine for attendees of Australian Society of Antimicrobials (ASA) meeting.the event was organised by the ASA department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration 1.5 hours</t>
+      <t>$454.92</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>A sponsored educational meeting covering recent developments in travel medicine for attendees of Australian Society of Antimicrobials (ASA) meeting.the event was organised by the ASA department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration 1.5 hours</t>
     </r>
   </si>
   <si>
@@ -1924,7 +1929,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">Street, Sydney, NSW, 2000</t>
+      <t>Street, Sydney, NSW, 2000</t>
     </r>
   </si>
   <si>
@@ -1949,7 +1954,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">- Infectious Diseases</t>
+      <t>- Infectious Diseases</t>
     </r>
   </si>
   <si>
@@ -1966,7 +1971,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$1494.55</t>
+      <t>$1494.55</t>
     </r>
   </si>
   <si>
@@ -1983,34 +1988,34 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Urology, Royal Melbourne Hospital, Grattan Street, PARKVILLE, VIC, 3052</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Nurse - Practitioner, Registrar - Urologist, Urologist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">26</t>
+      <t>for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Dept of Urology, Royal Melbourne Hospital, Grattan Street, PARKVILLE, VIC, 3052</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Nurse - Practitioner, Registrar - Urologist, Urologist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>26</t>
     </r>
   </si>
   <si>
@@ -2027,7 +2032,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$264</t>
+      <t>$264</t>
     </r>
   </si>
   <si>
@@ -2044,16 +2049,16 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel., Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Neurology, Yamba Drive, GARRAN, ACT, 2605</t>
+      <t>organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel., Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Dept of Neurology, Yamba Drive, GARRAN, ACT, 2605</t>
     </r>
   </si>
   <si>
@@ -2070,7 +2075,7 @@
         <sz val="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">$285.4</t>
+      <t>$285.4</t>
     </r>
   </si>
   <si>
@@ -2079,52 +2084,52 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">March</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of Urology Dept case review meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Urology, Royal Brisbane &amp; Womens Hospital, 40 Bowen Bridge Road, HERSTON, QLD, 4006</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Registrar - Urologist, Urologist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">N/A</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">12</t>
+      <t>March</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sponsorship of Urology Dept case review meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Dept of Urology, Royal Brisbane &amp; Womens Hospital, 40 Bowen Bridge Road, HERSTON, QLD, 4006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Registrar - Urologist, Urologist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>N/A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>12</t>
     </r>
   </si>
   <si>
@@ -2141,7 +2146,7 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$44.4</t>
+      <t>$44.4</t>
     </r>
   </si>
   <si>
@@ -2166,70 +2171,70 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">4224</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Registrar - General Surgeon, Urologist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship $20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of Gastroenterology Dept MDT colorectal cancer case review meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Gastroenterology, Royal Brisbane &amp; Womens Hospital, 40 Bowen Bridge Road, HERSTON, QLD, 4006</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Gastroenterologist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">20</t>
+      <t>4224</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Registrar - General Surgeon, Urologist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sponsorship $20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sponsorship of Gastroenterology Dept MDT colorectal cancer case review meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Dept of Gastroenterology, Royal Brisbane &amp; Womens Hospital, 40 Bowen Bridge Road, HERSTON, QLD, 4006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Gastroenterologist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>20</t>
     </r>
   </si>
   <si>
@@ -2246,43 +2251,43 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$160</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of Oncology Dept MDT meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 2 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Oncology Unit, Royal Adelaide Hospital, Breast Endocrine &amp; Surgical, ADELAIDE, SA, 5000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Oncologist, Registrars</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">29</t>
+      <t>$160</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sponsorship of Oncology Dept MDT meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 2 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Oncology Unit, Royal Adelaide Hospital, Breast Endocrine &amp; Surgical, ADELAIDE, SA, 5000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Oncologist, Registrars</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>29</t>
     </r>
   </si>
   <si>
@@ -2299,16 +2304,16 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$234</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of Neurology Dept grand rounds meeting. The event was organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+      <t>$234</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sponsorship of Neurology Dept grand rounds meeting. The event was organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
     </r>
   </si>
   <si>
@@ -2333,25 +2338,25 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">2065</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologist, Nurse - Educator</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">40</t>
+      <t>2065</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologist, Nurse - Educator</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>40</t>
     </r>
   </si>
   <si>
@@ -2368,7 +2373,7 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$346</t>
+      <t>$346</t>
     </r>
   </si>
   <si>
@@ -2385,7 +2390,7 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">organising the educational content, hospitality, accomodation or travel. Topic: Bacteriamia, Duration: 1.5 hours</t>
+      <t>organising the educational content, hospitality, accomodation or travel. Topic: Bacteriamia, Duration: 1.5 hours</t>
     </r>
   </si>
   <si>
@@ -2410,25 +2415,25 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">3084</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Infectious Diseases, Registrar - Infectious Diseases</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">42</t>
+      <t>3084</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Infectious Diseases, Registrar - Infectious Diseases</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>42</t>
     </r>
   </si>
   <si>
@@ -2445,16 +2450,16 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$383</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">General Practicioner Educational Meeting on Androgen Deficiency and Erectile Dysfunction, Bayer Australia Ltd Organised Meeting, , Duration: 2 hour</t>
+      <t>$383</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>General Practicioner Educational Meeting on Androgen Deficiency and Erectile Dysfunction, Bayer Australia Ltd Organised Meeting, , Duration: 2 hour</t>
     </r>
   </si>
   <si>
@@ -2471,25 +2476,25 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Street, Ispwich, QLD, 4305</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Consultant Physician, Endocrinologist, General Practitioner, Nurse - Diabetes Educator, Psychiatrist, Sexual Health Specialist, Urologist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Meal &amp; Beverage</t>
+      <t>Street, Ispwich, QLD, 4305</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Consultant Physician, Endocrinologist, General Practitioner, Nurse - Diabetes Educator, Psychiatrist, Sexual Health Specialist, Urologist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Meal &amp; Beverage</t>
     </r>
   </si>
   <si>
@@ -2506,61 +2511,61 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$2287.49</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">47</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$4,327.49</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sutherland Hospital - Respiratory Department Educational meeting,sponsorship.the event was organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1.5 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Respiratory Medicine, Sutherland Hospital Caringbah, 430 Kingsway, CARINGBAH, NSW, 2229</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Respiratory/Thoracic Physician</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">15</t>
+      <t>$2287.49</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>47</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$4,327.49</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sutherland Hospital - Respiratory Department Educational meeting,sponsorship.the event was organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1.5 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Dept of Respiratory Medicine, Sutherland Hospital Caringbah, 430 Kingsway, CARINGBAH, NSW, 2229</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Respiratory/Thoracic Physician</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>15</t>
     </r>
   </si>
   <si>
@@ -2577,25 +2582,25 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$198.8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of Neurology Dept case review meeting. The event was organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Neurology, 1 South Street, KOGARAH, NSW, 2217</t>
+      <t>$198.8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sponsorship of Neurology Dept case review meeting. The event was organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Dept of Neurology, 1 South Street, KOGARAH, NSW, 2217</t>
     </r>
   </si>
   <si>
@@ -2612,16 +2617,16 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Physician, Rehabilitation Physician</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">25</t>
+      <t>Physician, Rehabilitation Physician</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>25</t>
     </r>
   </si>
   <si>
@@ -2638,34 +2643,34 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$406.2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of Neurology Dept journal club meeting. The event was organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Neurology, St Vincents Hospital Sydney, Victoria Street, DARLINGHURST, NSW, 2010</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologist, Registrar - Neurologist</t>
+      <t>$406.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sponsorship of Neurology Dept journal club meeting. The event was organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Dept of Neurology, St Vincents Hospital Sydney, Victoria Street, DARLINGHURST, NSW, 2010</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologist, Registrar - Neurologist</t>
     </r>
   </si>
   <si>
@@ -2682,34 +2687,34 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$167.5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Urology, Princess Alexandra Hospital, 199 Ipswich Road, WOOLLOONGABBA, QLD, 4102</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Nurse - Unit Manager, Registrar - Urologist, Urologist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">30</t>
+      <t>$167.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Dept of Urology, Princess Alexandra Hospital, 199 Ipswich Road, WOOLLOONGABBA, QLD, 4102</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Nurse - Unit Manager, Registrar - Urologist, Urologist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>30</t>
     </r>
   </si>
   <si>
@@ -2726,7 +2731,7 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$300</t>
+      <t>$300</t>
     </r>
   </si>
   <si>
@@ -2751,7 +2756,7 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">4120</t>
+      <t>4120</t>
     </r>
   </si>
   <si>
@@ -2768,16 +2773,16 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Officer/SMO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">13</t>
+      <t>Officer/SMO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>13</t>
     </r>
   </si>
   <si>
@@ -2794,43 +2799,43 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$150</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of Oncology Dept urology cancers case review meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sunshine Coast Cancer Centre, Nambour General Hospital, 33 Hospital Road, NAMBOUR, QLD, 4560</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Medical Oncologist, Nurse - Oncology, Nurse - Unit Manager</t>
+      <t>$150</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sponsorship of Oncology Dept urology cancers case review meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sunshine Coast Cancer Centre, Nambour General Hospital, 33 Hospital Road, NAMBOUR, QLD, 4560</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Medical Oncologist, Nurse - Oncology, Nurse - Unit Manager</t>
     </r>
   </si>
   <si>
@@ -2847,34 +2852,34 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Aged Care, Kingston Centre, Warrigal Road, CHELTENHAM, VIC, 3192</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Nurses, Specialists</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">10</t>
+      <t>educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Dept of Aged Care, Kingston Centre, Warrigal Road, CHELTENHAM, VIC, 3192</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Nurses, Specialists</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>10</t>
     </r>
   </si>
   <si>
@@ -2891,34 +2896,34 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$144</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of Radiation Oncology Dept MDT meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 2 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Radiation Oncology, Royal Adelaide Hospital, East Wing - Level 3, ADELAIDE, SA, 5000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Radiation Oncologist/Radiotherapy, Registrar - Radiation Oncologist/Radiotherapy</t>
+      <t>$144</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sponsorship of Radiation Oncology Dept MDT meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 2 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Dept of Radiation Oncology, Royal Adelaide Hospital, East Wing - Level 3, ADELAIDE, SA, 5000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Radiation Oncologist/Radiotherapy, Registrar - Radiation Oncologist/Radiotherapy</t>
     </r>
   </si>
   <si>
@@ -2935,16 +2940,16 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$142</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Mirena insertion in General Practice- case studies, Bayer Australia Ltd Organised Meeting, , Duration: 1.5 hours</t>
+      <t>$142</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Mirena insertion in General Practice- case studies, Bayer Australia Ltd Organised Meeting, , Duration: 1.5 hours</t>
     </r>
   </si>
   <si>
@@ -2961,7 +2966,7 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Road, Herston, QLD, 4006</t>
+      <t>Road, Herston, QLD, 4006</t>
     </r>
   </si>
   <si>
@@ -2978,7 +2983,7 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Manager</t>
+      <t>Manager</t>
     </r>
   </si>
   <si>
@@ -2995,7 +3000,7 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Beverage</t>
+      <t>Beverage</t>
     </r>
   </si>
   <si>
@@ -3020,25 +3025,25 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$2624.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$2,967.86</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">An Update on the Relationship of ED and Co- Morbidities, Bayer Australia Ltd Organised Meeting,  CPD: 2, Duration: 2 hours</t>
+      <t>$2624.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$2,967.86</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>An Update on the Relationship of ED and Co- Morbidities, Bayer Australia Ltd Organised Meeting,  CPD: 2, Duration: 2 hours</t>
     </r>
   </si>
   <si>
@@ -3055,25 +3060,25 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Quay Drive, Erskine, WA, 6210</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">General Practitioner</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Beverage Only, Meal &amp; Beverage</t>
+      <t>Quay Drive, Erskine, WA, 6210</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>General Practitioner</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Beverage Only, Meal &amp; Beverage</t>
     </r>
   </si>
   <si>
@@ -3098,52 +3103,52 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$1198.8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">24</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$2,433.30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Urology, Gold Coast Hospital Southport, 108 Nerang Street, SOUTHPORT, QLD, 4215</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship $95</t>
+      <t>$1198.8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$2,433.30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Dept of Urology, Gold Coast Hospital Southport, 108 Nerang Street, SOUTHPORT, QLD, 4215</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sponsorship $95</t>
     </r>
   </si>
   <si>
@@ -3160,34 +3165,34 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">educational content, hospitality, accomodation or travel., Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Dept of General Medicine, Maroondah Hospital, 1-15 Davey Drive, RINGWOOD EAST, VIC, 3135</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Haematologist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">28</t>
+      <t>educational content, hospitality, accomodation or travel., Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Dept of General Medicine, Maroondah Hospital, 1-15 Davey Drive, RINGWOOD EAST, VIC, 3135</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Haematologist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>28</t>
     </r>
   </si>
   <si>
@@ -3204,34 +3209,34 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$180</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Campbelltown Respiratory Department Educational meeting,sponsorship.the event was organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Respiratory Medicine, Campbelltown Hospital, Therry Road, CAMPBELLTOWN, NSW, 2560</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Registrar - Respiratory/Thoracic Physician, Respiratory/Thoracic Physician</t>
+      <t>$180</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Campbelltown Respiratory Department Educational meeting,sponsorship.the event was organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Dept of Respiratory Medicine, Campbelltown Hospital, Therry Road, CAMPBELLTOWN, NSW, 2560</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Registrar - Respiratory/Thoracic Physician, Respiratory/Thoracic Physician</t>
     </r>
   </si>
   <si>
@@ -3248,7 +3253,7 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$190.3</t>
+      <t>$190.3</t>
     </r>
   </si>
   <si>
@@ -3265,7 +3270,7 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Officer/SMO, Urologist</t>
+      <t>Officer/SMO, Urologist</t>
     </r>
   </si>
   <si>
@@ -3282,16 +3287,16 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$112.2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of dept. educational meeting. Topic: Sepsis in difficult regions,sponsorship.the event was organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1.5 hours</t>
+      <t>$112.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sponsorship of dept. educational meeting. Topic: Sepsis in difficult regions,sponsorship.the event was organised by the clinical department and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1.5 hours</t>
     </r>
   </si>
   <si>
@@ -3308,16 +3313,16 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Clayton Road, CLAYTON, VIC, 3168</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Infectious Diseases, Microbiologist, Registrar - Infectious Diseases</t>
+      <t>Clayton Road, CLAYTON, VIC, 3168</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Infectious Diseases, Microbiologist, Registrar - Infectious Diseases</t>
     </r>
   </si>
   <si>
@@ -3334,52 +3339,52 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$416.84</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of Gastroenterology Dept case review meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Dept of Gastroenterology, Gold Coast Hospital Southport, Liver Clinic Block B Level 1, SOUTHPORT, QLD, 4215</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Gastroenterologist, Registrar - Gastroenterologist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Urologist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship $90</t>
+      <t>$416.84</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sponsorship of Gastroenterology Dept case review meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Dept of Gastroenterology, Gold Coast Hospital Southport, Liver Clinic Block B Level 1, SOUTHPORT, QLD, 4215</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Gastroenterologist, Registrar - Gastroenterologist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Urologist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sponsorship $90</t>
     </r>
   </si>
   <si>
@@ -3396,34 +3401,34 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$320</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">A  clinical education meeting focusing on Testosterone Deficiency and Erectile Dysfunction , , Duration: 2 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">shangri la the marina cairns, Pierpoint Road, Cairns, Queensland,4870., cairns, QLD, 4870</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Consultant Physician, Endocrinologist, Gastroenterologist, General Practitioner, Nurse - Diabetes Educator, Nurse - Registered Nurse, Registrar - Endocrinologist, Sexual Health Specialist, Urologist</t>
+      <t>$320</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A  clinical education meeting focusing on Testosterone Deficiency and Erectile Dysfunction , , Duration: 2 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>shangri la the marina cairns, Pierpoint Road, Cairns, Queensland,4870., cairns, QLD, 4870</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Consultant Physician, Endocrinologist, Gastroenterologist, General Practitioner, Nurse - Diabetes Educator, Nurse - Registered Nurse, Registrar - Endocrinologist, Sexual Health Specialist, Urologist</t>
     </r>
   </si>
   <si>
@@ -3440,7 +3445,7 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">&amp; Beverage</t>
+      <t>&amp; Beverage</t>
     </r>
   </si>
   <si>
@@ -3465,34 +3470,34 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$2777</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">46</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$6,113.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of Cairns Neurology Group meeting. The event was organised by the Cairns Neurology Group and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1.5 hours</t>
+      <t>$2777</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>46</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$6,113.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sponsorship of Cairns Neurology Group meeting. The event was organised by the Cairns Neurology Group and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1.5 hours</t>
     </r>
   </si>
   <si>
@@ -3509,16 +3514,16 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Town, SA, 5067</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologist, Nurse - Clinical Nurse, Registrar - Neurologist</t>
+      <t>Town, SA, 5067</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologist, Nurse - Clinical Nurse, Registrar - Neurologist</t>
     </r>
   </si>
   <si>
@@ -3535,16 +3540,16 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$4327</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">58</t>
+      <t>$4327</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>58</t>
     </r>
   </si>
   <si>
@@ -3561,52 +3566,52 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$4327</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship $50</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of FPQ Sexual Health Certification Course. The event was organised by the Family Planning of Queensland and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 6 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">FPQ Headoffice, 100 Alfred Street, BRisbane Fortitude Valley, QLD, 4000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">General Practitioner, Registrar - Endocrinologist, Sexual Health Specialist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">22</t>
+      <t>$4327</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sponsorship $50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sponsorship of FPQ Sexual Health Certification Course. The event was organised by the Family Planning of Queensland and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 6 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>FPQ Headoffice, 100 Alfred Street, BRisbane Fortitude Valley, QLD, 4000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>General Practitioner, Registrar - Endocrinologist, Sexual Health Specialist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>22</t>
     </r>
   </si>
   <si>
@@ -3623,79 +3628,79 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$600</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of Oncology Dept Nurse education meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Division of Cancer Services, Mater Adults Hospital, Level 3, SOUTH BRISBANE, QLD, 4101</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Registrar - Medical Oncologist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship $75</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Nurse Orthopaedic Meeting - sponsorship.the event was organised by the Orthopaedic Nurse Association  and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel., , Duration: 8 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Novotel Homebush Bay, Homebush Bay Drive, Sydney Olympic Park, Homebush Bay, NSW, 2000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Orthopaedic nurses</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">80</t>
+      <t>$600</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sponsorship of Oncology Dept Nurse education meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Division of Cancer Services, Mater Adults Hospital, Level 3, SOUTH BRISBANE, QLD, 4101</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Registrar - Medical Oncologist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sponsorship $75</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Nurse Orthopaedic Meeting - sponsorship.the event was organised by the Orthopaedic Nurse Association  and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel., , Duration: 8 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Novotel Homebush Bay, Homebush Bay Drive, Sydney Olympic Park, Homebush Bay, NSW, 2000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Orthopaedic nurses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>80</t>
     </r>
   </si>
   <si>
@@ -3712,16 +3717,16 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$500</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">MS Scientific Symposium - 15 years of Experience, 3 day conference, Bayer Australia Ltd Organised Meeting, , Duration: 20 hours</t>
+      <t>$500</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>MS Scientific Symposium - 15 years of Experience, 3 day conference, Bayer Australia Ltd Organised Meeting, , Duration: 20 hours</t>
     </r>
   </si>
   <si>
@@ -3738,16 +3743,16 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Street, Southbank, VIC, 3006</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologist, Neuro-opthalmologist, Registrars, MS Nurses</t>
+      <t>Street, Southbank, VIC, 3006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologist, Neuro-opthalmologist, Registrars, MS Nurses</t>
     </r>
   </si>
   <si>
@@ -3788,25 +3793,25 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$38668.63</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">163</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$184,131.04</t>
+      <t>$38668.63</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>163</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$184,131.04</t>
     </r>
   </si>
   <si>
@@ -3823,7 +3828,7 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">educational content, hospitality, accomodation or travel. Duration: 16 hours</t>
+      <t>educational content, hospitality, accomodation or travel. Duration: 16 hours</t>
     </r>
   </si>
   <si>
@@ -3840,16 +3845,16 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Parade, Lorne, VIC, 3232</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Gastroenterologist, Hepatologist, Registrars</t>
+      <t>Parade, Lorne, VIC, 3232</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Gastroenterologist, Hepatologist, Registrars</t>
     </r>
   </si>
   <si>
@@ -3866,16 +3871,16 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$2000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of Gastroenterology Dept Hepatobiliary MDT case review meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
+      <t>$2000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sponsorship of Gastroenterology Dept Hepatobiliary MDT case review meeting. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 1 hour</t>
     </r>
   </si>
   <si>
@@ -3892,7 +3897,7 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Nurse, Registrar - Gastroenterologist</t>
+      <t>Nurse, Registrar - Gastroenterologist</t>
     </r>
   </si>
   <si>
@@ -3909,43 +3914,43 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$86.2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sponsorship of Urology Dept MDT education meeting on testicular cancer. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 3 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Le Barouqe Restaurant, 2 Main Street, Buderim, QLD, 4556</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Medical Oncologist, Palliative Care, Radiation Oncologist/Radiotherapy, Registrar - Medical Oncologist, Urologist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">9</t>
+      <t>$86.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sponsorship of Urology Dept MDT education meeting on testicular cancer. The event was organised by the Clinical Dept and Bayer Schering Pharma was not responsible for inviting the attendees or organising the educational content, hospitality, accomodation or travel. Duration: 3 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Le Barouqe Restaurant, 2 Main Street, Buderim, QLD, 4556</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Medical Oncologist, Palliative Care, Radiation Oncologist/Radiotherapy, Registrar - Medical Oncologist, Urologist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>9</t>
     </r>
   </si>
   <si>
@@ -3962,16 +3967,16 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$662.04</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">A clinical education meeting focusing on Testosterone Deficiency and Erectile Dysfunction , Bayer Australia Ltd Organised Meeting,  CPD: 2, CME:2, Duration: 2 hours</t>
+      <t>$662.04</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A clinical education meeting focusing on Testosterone Deficiency and Erectile Dysfunction , Bayer Australia Ltd Organised Meeting,  CPD: 2, CME:2, Duration: 2 hours</t>
     </r>
   </si>
   <si>
@@ -3988,16 +3993,16 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">4001,Westpoint Shopping Ctre, Blacktown, NSW, 2748</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Consultant Physician, General Practitioner, Nurse - Diabetes Educator, Registrar - Endocrinologist</t>
+      <t>4001,Westpoint Shopping Ctre, Blacktown, NSW, 2748</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Consultant Physician, General Practitioner, Nurse - Diabetes Educator, Registrar - Endocrinologist</t>
     </r>
   </si>
   <si>
@@ -4014,43 +4019,43 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$3957.41</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">68</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$4,073.80</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Introduction to Mirena Insertion Workshop, Bayer Australia Ltd Organised Meeting , Duration: 1.5 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sheraton Hotel, Mill Street, Perth, WA, 6000</t>
+      <t>$3957.41</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>68</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$4,073.80</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Introduction to Mirena Insertion Workshop, Bayer Australia Ltd Organised Meeting , Duration: 1.5 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sheraton Hotel, Mill Street, Perth, WA, 6000</t>
     </r>
   </si>
   <si>
@@ -4067,43 +4072,43 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Bevarage $1450</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$1,450.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Better management of Erectile Dysfuntion, Bayer Australia Ltd Organised Meeting, , Duration: 2.5 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">The Manse Restuatant, 142 Tynte Street, North Adelaide, SA, 5001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">General Practitioner, Psychiatrist, Urologist</t>
+      <t>Bevarage $1450</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$1,450.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Better management of Erectile Dysfuntion, Bayer Australia Ltd Organised Meeting, , Duration: 2.5 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>The Manse Restuatant, 142 Tynte Street, North Adelaide, SA, 5001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>General Practitioner, Psychiatrist, Urologist</t>
     </r>
   </si>
   <si>
@@ -4120,42 +4125,92 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$4200</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">52</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$5,400.00</t>
-    </r>
+      <t>$4200</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>52</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$5,400.00</t>
+    </r>
+  </si>
+  <si>
+    <t>Description of function including duration of educational content delivered</t>
+  </si>
+  <si>
+    <t>Venue</t>
+  </si>
+  <si>
+    <t>Professional Status  of</t>
+  </si>
+  <si>
+    <t>Attendees</t>
+  </si>
+  <si>
+    <t>Hospitality Provided</t>
+  </si>
+  <si>
+    <t>Total Cost of Hospitality (Excl GST)</t>
+  </si>
+  <si>
+    <t>Number of Attendee s - number only</t>
+  </si>
+  <si>
+    <t>Total Cost of Function (Excl GST)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color rgb="#000000"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4172,8 +4227,14 @@
         <fgColor rgb="FF0000FF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ACC00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -4204,19 +4265,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -4231,40 +4279,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fillId="2" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fillId="3" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="3" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="2" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="3" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="4" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4559,82 +4672,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="37.555556"/>
-    <col min="2" max="2" customWidth="1" width="35.555556"/>
-    <col min="3" max="3" customWidth="1" width="31.777778"/>
-    <col min="4" max="4" customWidth="1" width="14.444444"/>
-    <col min="5" max="5" customWidth="1" width="14.222222"/>
-    <col min="6" max="6" customWidth="1" width="10"/>
-    <col min="7" max="7" customWidth="1" width="14.444444"/>
-    <col min="8" max="8" customWidth="1" width="2.666667"/>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="0" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-    </row>
-    <row r="3" spans="1:8" ht="28" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="0"/>
-    </row>
-    <row r="4" spans="1:8" ht="16" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="0"/>
-    </row>
-    <row r="5" spans="1:8" ht="16" customHeight="1">
+    </row>
+    <row r="3" spans="1:7" ht="28" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" customHeight="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="16" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -4644,9 +4745,8 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="0"/>
-    </row>
-    <row r="6" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="6" spans="1:7" ht="84" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -4668,9 +4768,8 @@
       <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="0"/>
-    </row>
-    <row r="7" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="7" spans="1:7" ht="84" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -4692,9 +4791,8 @@
       <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="0"/>
-    </row>
-    <row r="8" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="8" spans="1:7" ht="84" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4716,9 +4814,8 @@
       <c r="G8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="0"/>
-    </row>
-    <row r="9" spans="1:8" ht="28" customHeight="1">
+    </row>
+    <row r="9" spans="1:7" ht="28" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -4740,9 +4837,8 @@
       <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="0"/>
-    </row>
-    <row r="10" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="10" spans="1:7" ht="84" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -4764,9 +4860,8 @@
       <c r="G10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="0"/>
-    </row>
-    <row r="11" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="11" spans="1:7" ht="84" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -4788,9 +4883,8 @@
       <c r="G11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="0"/>
-    </row>
-    <row r="12" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="12" spans="1:7" ht="84" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -4812,9 +4906,8 @@
       <c r="G12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="0"/>
-    </row>
-    <row r="13" spans="1:8" ht="93" customHeight="1">
+    </row>
+    <row r="13" spans="1:7" ht="93" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -4836,9 +4929,8 @@
       <c r="G13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="0"/>
-    </row>
-    <row r="14" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="14" spans="1:7" ht="84" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -4860,9 +4952,8 @@
       <c r="G14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="0"/>
-    </row>
-    <row r="15" spans="1:8" ht="28" customHeight="1">
+    </row>
+    <row r="15" spans="1:7" ht="28" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -4884,9 +4975,8 @@
       <c r="G15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="0"/>
-    </row>
-    <row r="16" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="16" spans="1:7" ht="84" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -4908,9 +4998,8 @@
       <c r="G16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="0"/>
-    </row>
-    <row r="17" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="17" spans="1:7" ht="84" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
@@ -4932,9 +5021,8 @@
       <c r="G17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="0"/>
-    </row>
-    <row r="18" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="18" spans="1:7" ht="84" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
@@ -4956,9 +5044,8 @@
       <c r="G18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="0"/>
-    </row>
-    <row r="19" spans="1:8" ht="16" customHeight="1">
+    </row>
+    <row r="19" spans="1:7" ht="16" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4966,9 +5053,8 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="0"/>
-    </row>
-    <row r="20" spans="1:8" ht="16" customHeight="1">
+    </row>
+    <row r="20" spans="1:7" ht="16" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
@@ -4978,9 +5064,8 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="0"/>
-    </row>
-    <row r="21" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="21" spans="1:7" ht="84" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
@@ -5002,9 +5087,8 @@
       <c r="G21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="0"/>
-    </row>
-    <row r="22" spans="1:8" ht="28" customHeight="1">
+    </row>
+    <row r="22" spans="1:7" ht="28" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -5026,9 +5110,8 @@
       <c r="G22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="0"/>
-    </row>
-    <row r="23" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="23" spans="1:7" ht="84" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>62</v>
       </c>
@@ -5050,9 +5133,8 @@
       <c r="G23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="0"/>
-    </row>
-    <row r="24" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="24" spans="1:7" ht="84" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
@@ -5074,9 +5156,8 @@
       <c r="G24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="0"/>
-    </row>
-    <row r="25" spans="1:8" ht="93" customHeight="1">
+    </row>
+    <row r="25" spans="1:7" ht="93" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>69</v>
       </c>
@@ -5098,9 +5179,8 @@
       <c r="G25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H25" s="0"/>
-    </row>
-    <row r="26" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="26" spans="1:7" ht="84" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
@@ -5122,9 +5202,8 @@
       <c r="G26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H26" s="0"/>
-    </row>
-    <row r="27" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="27" spans="1:7" ht="84" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>75</v>
       </c>
@@ -5146,9 +5225,8 @@
       <c r="G27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="0"/>
-    </row>
-    <row r="28" spans="1:8" ht="28" customHeight="1">
+    </row>
+    <row r="28" spans="1:7" ht="28" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -5170,9 +5248,8 @@
       <c r="G28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="0"/>
-    </row>
-    <row r="29" spans="1:8" ht="93" customHeight="1">
+    </row>
+    <row r="29" spans="1:7" ht="93" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>80</v>
       </c>
@@ -5194,9 +5271,8 @@
       <c r="G29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="0"/>
-    </row>
-    <row r="30" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="30" spans="1:7" ht="84" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>43</v>
       </c>
@@ -5218,9 +5294,8 @@
       <c r="G30" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="0"/>
-    </row>
-    <row r="31" spans="1:8" ht="93" customHeight="1">
+    </row>
+    <row r="31" spans="1:7" ht="93" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>85</v>
       </c>
@@ -5242,9 +5317,8 @@
       <c r="G31" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H31" s="0"/>
-    </row>
-    <row r="32" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="32" spans="1:7" ht="84" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>89</v>
       </c>
@@ -5266,9 +5340,8 @@
       <c r="G32" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H32" s="0"/>
-    </row>
-    <row r="33" spans="1:8" ht="28" customHeight="1">
+    </row>
+    <row r="33" spans="1:7" ht="28" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -5290,9 +5363,8 @@
       <c r="G33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="0"/>
-    </row>
-    <row r="34" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="34" spans="1:7" ht="84" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>93</v>
       </c>
@@ -5314,9 +5386,8 @@
       <c r="G34" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H34" s="0"/>
-    </row>
-    <row r="35" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="35" spans="1:7" ht="84" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>95</v>
       </c>
@@ -5338,9 +5409,8 @@
       <c r="G35" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H35" s="0"/>
-    </row>
-    <row r="36" spans="1:8" ht="93" customHeight="1">
+    </row>
+    <row r="36" spans="1:7" ht="93" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>99</v>
       </c>
@@ -5362,9 +5432,8 @@
       <c r="G36" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H36" s="0"/>
-    </row>
-    <row r="37" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="37" spans="1:7" ht="84" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>43</v>
       </c>
@@ -5386,9 +5455,8 @@
       <c r="G37" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H37" s="0"/>
-    </row>
-    <row r="38" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="38" spans="1:7" ht="84" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>104</v>
       </c>
@@ -5410,9 +5478,8 @@
       <c r="G38" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="0"/>
-    </row>
-    <row r="39" spans="1:8" ht="28" customHeight="1">
+    </row>
+    <row r="39" spans="1:7" ht="28" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
@@ -5434,9 +5501,8 @@
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H39" s="0"/>
-    </row>
-    <row r="40" spans="1:8" ht="103" customHeight="1">
+    </row>
+    <row r="40" spans="1:7" ht="103" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>107</v>
       </c>
@@ -5458,9 +5524,8 @@
       <c r="G40" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H40" s="0"/>
-    </row>
-    <row r="41" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="41" spans="1:7" ht="84" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>112</v>
       </c>
@@ -5482,9 +5547,8 @@
       <c r="G41" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H41" s="0"/>
-    </row>
-    <row r="42" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="42" spans="1:7" ht="84" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
@@ -5506,9 +5570,8 @@
       <c r="G42" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H42" s="0"/>
-    </row>
-    <row r="43" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="43" spans="1:7" ht="84" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>62</v>
       </c>
@@ -5530,9 +5593,8 @@
       <c r="G43" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H43" s="0"/>
-    </row>
-    <row r="44" spans="1:8" ht="28" customHeight="1">
+    </row>
+    <row r="44" spans="1:7" ht="28" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -5554,9 +5616,8 @@
       <c r="G44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="0"/>
-    </row>
-    <row r="45" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="45" spans="1:7" ht="84" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>120</v>
       </c>
@@ -5578,9 +5639,8 @@
       <c r="G45" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="0"/>
-    </row>
-    <row r="46" spans="1:8" ht="93" customHeight="1">
+    </row>
+    <row r="46" spans="1:7" ht="93" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>121</v>
       </c>
@@ -5602,9 +5662,8 @@
       <c r="G46" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="H46" s="0"/>
-    </row>
-    <row r="47" spans="1:8" ht="56" customHeight="1">
+    </row>
+    <row r="47" spans="1:7" ht="56" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>125</v>
       </c>
@@ -5623,12 +5682,11 @@
       <c r="F47" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H47" s="0"/>
-    </row>
-    <row r="48" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="48" spans="1:7" ht="84" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>129</v>
       </c>
@@ -5650,9 +5708,8 @@
       <c r="G48" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="H48" s="0"/>
-    </row>
-    <row r="49" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="49" spans="1:7" ht="84" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>89</v>
       </c>
@@ -5674,9 +5731,8 @@
       <c r="G49" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H49" s="0"/>
-    </row>
-    <row r="50" spans="1:8" ht="28" customHeight="1">
+    </row>
+    <row r="50" spans="1:7" ht="28" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
@@ -5698,9 +5754,8 @@
       <c r="G50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H50" s="0"/>
-    </row>
-    <row r="51" spans="1:8" ht="93" customHeight="1">
+    </row>
+    <row r="51" spans="1:7" ht="93" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>134</v>
       </c>
@@ -5722,9 +5777,8 @@
       <c r="G51" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="H51" s="0"/>
-    </row>
-    <row r="52" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="52" spans="1:7" ht="84" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>137</v>
       </c>
@@ -5746,9 +5800,8 @@
       <c r="G52" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H52" s="0"/>
-    </row>
-    <row r="53" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="53" spans="1:7" ht="84" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>89</v>
       </c>
@@ -5770,9 +5823,8 @@
       <c r="G53" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="H53" s="0"/>
-    </row>
-    <row r="54" spans="1:8" ht="112" customHeight="1">
+    </row>
+    <row r="54" spans="1:7" ht="112" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>142</v>
       </c>
@@ -5794,9 +5846,8 @@
       <c r="G54" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H54" s="0"/>
-    </row>
-    <row r="55" spans="1:8" ht="28" customHeight="1">
+    </row>
+    <row r="55" spans="1:7" ht="28" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
@@ -5818,9 +5869,8 @@
       <c r="G55" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H55" s="0"/>
-    </row>
-    <row r="56" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="56" spans="1:7" ht="84" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>146</v>
       </c>
@@ -5842,9 +5892,8 @@
       <c r="G56" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H56" s="0"/>
-    </row>
-    <row r="57" spans="1:8" ht="84" customHeight="1">
+    </row>
+    <row r="57" spans="1:7" ht="84" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>151</v>
       </c>
@@ -5866,9 +5915,8 @@
       <c r="G57" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H57" s="0"/>
-    </row>
-    <row r="58" spans="1:8" ht="16" customHeight="1">
+    </row>
+    <row r="58" spans="1:7" ht="16" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5876,9 +5924,8 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="0"/>
-    </row>
-    <row r="59" spans="1:8" ht="16" customHeight="1">
+    </row>
+    <row r="59" spans="1:7" ht="16" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>154</v>
       </c>
@@ -5888,9 +5935,8 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="0"/>
-    </row>
-    <row r="60" spans="1:8" ht="69" customHeight="1">
+    </row>
+    <row r="60" spans="1:7" ht="69" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>155</v>
       </c>
@@ -5912,9 +5958,8 @@
       <c r="G60" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="H60" s="0"/>
-    </row>
-    <row r="61" spans="1:8" ht="69" customHeight="1">
+    </row>
+    <row r="61" spans="1:7" ht="69" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>155</v>
       </c>
@@ -5936,9 +5981,8 @@
       <c r="G61" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="H61" s="0"/>
-    </row>
-    <row r="62" spans="1:8" ht="79" customHeight="1">
+    </row>
+    <row r="62" spans="1:7" ht="79" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>165</v>
       </c>
@@ -5960,9 +6004,8 @@
       <c r="G62" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="H62" s="0"/>
-    </row>
-    <row r="63" spans="1:8" ht="28" customHeight="1">
+    </row>
+    <row r="63" spans="1:7" ht="28" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
@@ -5984,9 +6027,8 @@
       <c r="G63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H63" s="0"/>
-    </row>
-    <row r="64" spans="1:8" ht="69" customHeight="1">
+    </row>
+    <row r="64" spans="1:7" ht="69" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>170</v>
       </c>
@@ -6008,9 +6050,8 @@
       <c r="G64" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="H64" s="0"/>
-    </row>
-    <row r="65" spans="1:8" ht="79" customHeight="1">
+    </row>
+    <row r="65" spans="1:7" ht="79" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>175</v>
       </c>
@@ -6032,9 +6073,8 @@
       <c r="G65" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="H65" s="0"/>
-    </row>
-    <row r="66" spans="1:8" ht="79" customHeight="1">
+    </row>
+    <row r="66" spans="1:7" ht="79" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>180</v>
       </c>
@@ -6056,9 +6096,8 @@
       <c r="G66" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H66" s="0"/>
-    </row>
-    <row r="67" spans="1:8" ht="49" customHeight="1">
+    </row>
+    <row r="67" spans="1:7" ht="49" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>185</v>
       </c>
@@ -6071,7 +6110,7 @@
       <c r="D67" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="6" t="s">
         <v>189</v>
       </c>
       <c r="F67" s="5" t="s">
@@ -6080,9 +6119,8 @@
       <c r="G67" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="H67" s="0"/>
-    </row>
-    <row r="68" spans="1:8" ht="89" customHeight="1">
+    </row>
+    <row r="68" spans="1:7" ht="89" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>192</v>
       </c>
@@ -6104,9 +6142,8 @@
       <c r="G68" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H68" s="0"/>
-    </row>
-    <row r="69" spans="1:8" ht="28" customHeight="1">
+    </row>
+    <row r="69" spans="1:7" ht="28" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
@@ -6128,9 +6165,8 @@
       <c r="G69" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H69" s="0"/>
-    </row>
-    <row r="70" spans="1:8" ht="79" customHeight="1">
+    </row>
+    <row r="70" spans="1:7" ht="79" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>197</v>
       </c>
@@ -6152,9 +6188,8 @@
       <c r="G70" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="H70" s="0"/>
-    </row>
-    <row r="71" spans="1:8" ht="69" customHeight="1">
+    </row>
+    <row r="71" spans="1:7" ht="69" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>202</v>
       </c>
@@ -6176,9 +6211,8 @@
       <c r="G71" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H71" s="0"/>
-    </row>
-    <row r="72" spans="1:8" ht="69" customHeight="1">
+    </row>
+    <row r="72" spans="1:7" ht="69" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>155</v>
       </c>
@@ -6200,9 +6234,8 @@
       <c r="G72" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H72" s="0"/>
-    </row>
-    <row r="73" spans="1:8" ht="69" customHeight="1">
+    </row>
+    <row r="73" spans="1:7" ht="69" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>155</v>
       </c>
@@ -6224,9 +6257,8 @@
       <c r="G73" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H73" s="0"/>
-    </row>
-    <row r="74" spans="1:8" ht="69" customHeight="1">
+    </row>
+    <row r="74" spans="1:7" ht="69" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>155</v>
       </c>
@@ -6248,9 +6280,8 @@
       <c r="G74" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="H74" s="0"/>
-    </row>
-    <row r="75" spans="1:8" ht="28" customHeight="1">
+    </row>
+    <row r="75" spans="1:7" ht="28" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>2</v>
       </c>
@@ -6272,9 +6303,8 @@
       <c r="G75" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H75" s="0"/>
-    </row>
-    <row r="76" spans="1:8" ht="79" customHeight="1">
+    </row>
+    <row r="76" spans="1:7" ht="79" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>215</v>
       </c>
@@ -6296,9 +6326,8 @@
       <c r="G76" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H76" s="0"/>
-    </row>
-    <row r="77" spans="1:8" ht="69" customHeight="1">
+    </row>
+    <row r="77" spans="1:7" ht="69" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>218</v>
       </c>
@@ -6320,9 +6349,8 @@
       <c r="G77" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="H77" s="0"/>
-    </row>
-    <row r="78" spans="1:8" ht="69" customHeight="1">
+    </row>
+    <row r="78" spans="1:7" ht="69" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>223</v>
       </c>
@@ -6344,9 +6372,8 @@
       <c r="G78" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="H78" s="0"/>
-    </row>
-    <row r="79" spans="1:8" ht="29" customHeight="1">
+    </row>
+    <row r="79" spans="1:7" ht="29" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>227</v>
       </c>
@@ -6368,9 +6395,8 @@
       <c r="G79" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H79" s="0"/>
-    </row>
-    <row r="80" spans="1:8" ht="39" customHeight="1">
+    </row>
+    <row r="80" spans="1:7" ht="39" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>233</v>
       </c>
@@ -6383,7 +6409,7 @@
       <c r="D80" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="6" t="s">
         <v>237</v>
       </c>
       <c r="F80" s="5" t="s">
@@ -6392,9 +6418,8 @@
       <c r="G80" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H80" s="0"/>
-    </row>
-    <row r="81" spans="1:8" ht="69" customHeight="1">
+    </row>
+    <row r="81" spans="1:7" ht="69" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>155</v>
       </c>
@@ -6416,9 +6441,8 @@
       <c r="G81" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="H81" s="0"/>
-    </row>
-    <row r="82" spans="1:8" ht="69" customHeight="1">
+    </row>
+    <row r="82" spans="1:7" ht="69" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>243</v>
       </c>
@@ -6440,9 +6464,8 @@
       <c r="G82" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H82" s="0"/>
-    </row>
-    <row r="83" spans="1:8" ht="28" customHeight="1">
+    </row>
+    <row r="83" spans="1:7" ht="28" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>2</v>
       </c>
@@ -6464,9 +6487,8 @@
       <c r="G83" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H83" s="0"/>
-    </row>
-    <row r="84" spans="1:8" ht="79" customHeight="1">
+    </row>
+    <row r="84" spans="1:7" ht="79" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>248</v>
       </c>
@@ -6488,9 +6510,8 @@
       <c r="G84" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H84" s="0"/>
-    </row>
-    <row r="85" spans="1:8" ht="69" customHeight="1">
+    </row>
+    <row r="85" spans="1:7" ht="69" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>155</v>
       </c>
@@ -6512,9 +6533,8 @@
       <c r="G85" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="H85" s="0"/>
-    </row>
-    <row r="86" spans="1:8" ht="89" customHeight="1">
+    </row>
+    <row r="86" spans="1:7" ht="89" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>254</v>
       </c>
@@ -6536,9 +6556,8 @@
       <c r="G86" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="H86" s="0"/>
-    </row>
-    <row r="87" spans="1:8" ht="69" customHeight="1">
+    </row>
+    <row r="87" spans="1:7" ht="69" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>258</v>
       </c>
@@ -6560,9 +6579,8 @@
       <c r="G87" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H87" s="0"/>
-    </row>
-    <row r="88" spans="1:8" ht="69" customHeight="1">
+    </row>
+    <row r="88" spans="1:7" ht="69" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>155</v>
       </c>
@@ -6584,9 +6602,8 @@
       <c r="G88" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="H88" s="0"/>
-    </row>
-    <row r="89" spans="1:8" ht="28" customHeight="1">
+    </row>
+    <row r="89" spans="1:7" ht="28" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>2</v>
       </c>
@@ -6608,9 +6625,8 @@
       <c r="G89" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H89" s="0"/>
-    </row>
-    <row r="90" spans="1:8" ht="69" customHeight="1">
+    </row>
+    <row r="90" spans="1:7" ht="69" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>155</v>
       </c>
@@ -6632,9 +6648,8 @@
       <c r="G90" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="H90" s="0"/>
-    </row>
-    <row r="91" spans="1:8" ht="69" customHeight="1">
+    </row>
+    <row r="91" spans="1:7" ht="69" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>264</v>
       </c>
@@ -6644,10 +6659,10 @@
       <c r="C91" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="6" t="s">
         <v>268</v>
       </c>
       <c r="F91" s="5" t="s">
@@ -6656,9 +6671,8 @@
       <c r="G91" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="H91" s="0"/>
-    </row>
-    <row r="92" spans="1:8" ht="79" customHeight="1">
+    </row>
+    <row r="92" spans="1:7" ht="79" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>271</v>
       </c>
@@ -6680,9 +6694,8 @@
       <c r="G92" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="H92" s="0"/>
-    </row>
-    <row r="93" spans="1:8" ht="69" customHeight="1">
+    </row>
+    <row r="93" spans="1:7" ht="69" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>155</v>
       </c>
@@ -6704,9 +6717,8 @@
       <c r="G93" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="H93" s="0"/>
-    </row>
-    <row r="94" spans="1:8" ht="79" customHeight="1">
+    </row>
+    <row r="94" spans="1:7" ht="79" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>278</v>
       </c>
@@ -6728,9 +6740,8 @@
       <c r="G94" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="H94" s="0"/>
-    </row>
-    <row r="95" spans="1:8" ht="28" customHeight="1">
+    </row>
+    <row r="95" spans="1:7" ht="28" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
@@ -6752,9 +6763,8 @@
       <c r="G95" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H95" s="0"/>
-    </row>
-    <row r="96" spans="1:8" ht="69" customHeight="1">
+    </row>
+    <row r="96" spans="1:7" ht="69" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>283</v>
       </c>
@@ -6776,9 +6786,8 @@
       <c r="G96" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="H96" s="0"/>
-    </row>
-    <row r="97" spans="1:8" ht="79" customHeight="1">
+    </row>
+    <row r="97" spans="1:7" ht="79" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>287</v>
       </c>
@@ -6800,9 +6809,8 @@
       <c r="G97" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="H97" s="0"/>
-    </row>
-    <row r="98" spans="1:8" ht="79" customHeight="1">
+    </row>
+    <row r="98" spans="1:7" ht="79" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>292</v>
       </c>
@@ -6812,10 +6820,10 @@
       <c r="C98" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="6" t="s">
         <v>295</v>
       </c>
       <c r="F98" s="5" t="s">
@@ -6824,9 +6832,8 @@
       <c r="G98" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="H98" s="0"/>
-    </row>
-    <row r="99" spans="1:8" ht="79" customHeight="1">
+    </row>
+    <row r="99" spans="1:7" ht="79" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>298</v>
       </c>
@@ -6848,9 +6855,8 @@
       <c r="G99" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="H99" s="0"/>
-    </row>
-    <row r="100" spans="1:8" ht="69" customHeight="1">
+    </row>
+    <row r="100" spans="1:7" ht="69" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>155</v>
       </c>
@@ -6872,9 +6878,8 @@
       <c r="G100" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="H100" s="0"/>
-    </row>
-    <row r="101" spans="1:8" ht="28" customHeight="1">
+    </row>
+    <row r="101" spans="1:7" ht="28" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>2</v>
       </c>
@@ -6896,9 +6901,8 @@
       <c r="G101" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="0"/>
-    </row>
-    <row r="102" spans="1:8" ht="79" customHeight="1">
+    </row>
+    <row r="102" spans="1:7" ht="79" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>302</v>
       </c>
@@ -6920,9 +6924,8 @@
       <c r="G102" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H102" s="0"/>
-    </row>
-    <row r="103" spans="1:8" ht="69" customHeight="1">
+    </row>
+    <row r="103" spans="1:7" ht="69" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>155</v>
       </c>
@@ -6944,9 +6947,8 @@
       <c r="G103" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="H103" s="0"/>
-    </row>
-    <row r="104" spans="1:8" ht="79" customHeight="1">
+    </row>
+    <row r="104" spans="1:7" ht="79" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>305</v>
       </c>
@@ -6968,9 +6970,8 @@
       <c r="G104" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="H104" s="0"/>
-    </row>
-    <row r="105" spans="1:8" ht="49" customHeight="1">
+    </row>
+    <row r="105" spans="1:7" ht="49" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>310</v>
       </c>
@@ -6983,7 +6984,7 @@
       <c r="D105" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E105" s="6" t="s">
         <v>313</v>
       </c>
       <c r="F105" s="5" t="s">
@@ -6992,9 +6993,8 @@
       <c r="G105" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="H105" s="0"/>
-    </row>
-    <row r="106" spans="1:8" ht="29" customHeight="1">
+    </row>
+    <row r="106" spans="1:7" ht="29" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>316</v>
       </c>
@@ -7007,7 +7007,7 @@
       <c r="D106" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="6" t="s">
         <v>318</v>
       </c>
       <c r="F106" s="5" t="s">
@@ -7016,9 +7016,8 @@
       <c r="G106" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="H106" s="0"/>
-    </row>
-    <row r="107" spans="1:8" ht="29" customHeight="1">
+    </row>
+    <row r="107" spans="1:7" ht="29" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>320</v>
       </c>
@@ -7031,7 +7030,7 @@
       <c r="D107" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="6" t="s">
         <v>323</v>
       </c>
       <c r="F107" s="5" t="s">
@@ -7040,12 +7039,22 @@
       <c r="G107" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="H107" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
     <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>